--- a/grid_world/result/Q_values_1.xlsx
+++ b/grid_world/result/Q_values_1.xlsx
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.168858207982449</v>
+        <v>4.200115365355001</v>
       </c>
       <c r="C2" t="n">
-        <v>4.041902302878222</v>
+        <v>4.083479320888438</v>
       </c>
       <c r="D2" t="n">
-        <v>4.335139371021834</v>
+        <v>4.412254026627118</v>
       </c>
       <c r="E2" t="n">
-        <v>4.160028353223876</v>
+        <v>4.21978660082848</v>
       </c>
     </row>
     <row r="3">
@@ -469,16 +469,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.173605278999024</v>
+        <v>4.208931593848797</v>
       </c>
       <c r="C3" t="n">
-        <v>4.090067972857389</v>
+        <v>4.142183876062376</v>
       </c>
       <c r="D3" t="n">
-        <v>4.808131204957349</v>
+        <v>4.915922881205138</v>
       </c>
       <c r="E3" t="n">
-        <v>4.361617591734416</v>
+        <v>4.413220358144323</v>
       </c>
     </row>
     <row r="4">
@@ -486,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.365678548103373</v>
+        <v>4.414882122597795</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.373612184974771</v>
+        <v>5.440678856976416</v>
       </c>
       <c r="E4" t="n">
-        <v>4.873950256748333</v>
+        <v>4.925525635664263</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.85048806794521</v>
+        <v>4.962180378242666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.759860648219052</v>
+        <v>5.900922394652679</v>
       </c>
       <c r="E5" t="n">
-        <v>5.315551101348668</v>
+        <v>5.435434686831936</v>
       </c>
     </row>
     <row r="6">
@@ -520,16 +520,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.425665952276467</v>
+        <v>5.440698540460342</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.249977360873526</v>
+        <v>6.331939519450682</v>
       </c>
       <c r="E6" t="n">
-        <v>5.709254080888372</v>
+        <v>5.859383270308058</v>
       </c>
     </row>
     <row r="7">
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.807482916102428</v>
+        <v>5.837454633655571</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.726814666487304</v>
+        <v>6.798423242194798</v>
       </c>
       <c r="E7" t="n">
-        <v>6.307517479814503</v>
+        <v>6.338113701888992</v>
       </c>
     </row>
     <row r="8">
@@ -554,16 +554,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.312203076262985</v>
+        <v>6.285457698215994</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.205294117136223</v>
+        <v>7.302235728777037</v>
       </c>
       <c r="E8" t="n">
-        <v>6.786913204460527</v>
+        <v>6.783477375302172</v>
       </c>
     </row>
     <row r="9">
@@ -571,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.778734599720521</v>
+        <v>6.803628711372831</v>
       </c>
       <c r="C9" t="n">
-        <v>7.712979568132283</v>
+        <v>7.716658919661416</v>
       </c>
       <c r="D9" t="n">
-        <v>7.429914791082809</v>
+        <v>7.447362310708213</v>
       </c>
       <c r="E9" t="n">
-        <v>7.316593781491656</v>
+        <v>7.297589723287831</v>
       </c>
     </row>
     <row r="10">
@@ -588,16 +588,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.256658212708078</v>
+        <v>7.282052867734337</v>
       </c>
       <c r="C10" t="n">
-        <v>7.751652488477686</v>
+        <v>7.821453474464308</v>
       </c>
       <c r="D10" t="n">
-        <v>7.402003249657966</v>
+        <v>7.461510149260823</v>
       </c>
       <c r="E10" t="n">
-        <v>7.414129081192957</v>
+        <v>7.43900339696101</v>
       </c>
     </row>
     <row r="11">
@@ -605,16 +605,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.038018361221164</v>
+        <v>4.071250059144481</v>
       </c>
       <c r="C11" t="n">
-        <v>3.8997046375168</v>
+        <v>3.957170293026289</v>
       </c>
       <c r="D11" t="n">
-        <v>4.093639940935469</v>
+        <v>4.141480382337425</v>
       </c>
       <c r="E11" t="n">
-        <v>4.150965599323161</v>
+        <v>4.207931088949323</v>
       </c>
     </row>
     <row r="12">
@@ -622,16 +622,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.037928466976096</v>
+        <v>4.08081713582436</v>
       </c>
       <c r="C12" t="n">
-        <v>3.910195939873991</v>
+        <v>3.991227280696176</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.413784716010038</v>
+        <v>4.481798218662398</v>
       </c>
     </row>
     <row r="13">
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.110627269067356</v>
+        <v>8.177413082456571</v>
       </c>
       <c r="D18" t="n">
-        <v>7.762944313630328</v>
+        <v>7.808020794688911</v>
       </c>
       <c r="E18" t="n">
-        <v>7.297883092734931</v>
+        <v>7.25958929977672</v>
       </c>
     </row>
     <row r="19">
@@ -741,16 +741,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.717459484101321</v>
+        <v>7.705600614653297</v>
       </c>
       <c r="C19" t="n">
-        <v>8.236433988075506</v>
+        <v>8.324422476263859</v>
       </c>
       <c r="D19" t="n">
-        <v>7.753145510584501</v>
+        <v>7.792432674458051</v>
       </c>
       <c r="E19" t="n">
-        <v>7.438659040587807</v>
+        <v>7.423505853508413</v>
       </c>
     </row>
     <row r="20">
@@ -758,16 +758,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.906423350944135</v>
+        <v>3.956755774802474</v>
       </c>
       <c r="C20" t="n">
-        <v>3.795089231568404</v>
+        <v>3.902187120423095</v>
       </c>
       <c r="D20" t="n">
-        <v>3.899223931410352</v>
+        <v>3.992088632936122</v>
       </c>
       <c r="E20" t="n">
-        <v>4.016848781382762</v>
+        <v>4.069735718429326</v>
       </c>
     </row>
     <row r="21">
@@ -775,16 +775,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.892817907750575</v>
+        <v>3.967818400651709</v>
       </c>
       <c r="C21" t="n">
-        <v>3.807594567509908</v>
+        <v>3.932010068154542</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.089237605032119</v>
+        <v>4.151429003540692</v>
       </c>
     </row>
     <row r="22">
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>8.567071114212231</v>
+        <v>8.623999900802362</v>
       </c>
       <c r="D27" t="n">
-        <v>8.210546574129864</v>
+        <v>8.262868498715173</v>
       </c>
       <c r="E27" t="n">
-        <v>7.747486719020638</v>
+        <v>7.753244055269782</v>
       </c>
     </row>
     <row r="28">
@@ -894,16 +894,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.149615680815737</v>
+        <v>8.189685534581841</v>
       </c>
       <c r="C28" t="n">
-        <v>8.839658095518107</v>
+        <v>8.957020086705954</v>
       </c>
       <c r="D28" t="n">
-        <v>8.258934622601437</v>
+        <v>8.341416758872677</v>
       </c>
       <c r="E28" t="n">
-        <v>7.750418517686359</v>
+        <v>7.836931098644234</v>
       </c>
     </row>
     <row r="29">
@@ -911,16 +911,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.803058845640826</v>
+        <v>3.903238045032207</v>
       </c>
       <c r="C29" t="n">
-        <v>3.77067086559413</v>
+        <v>3.904254373301874</v>
       </c>
       <c r="D29" t="n">
-        <v>3.797925100533107</v>
+        <v>3.924502701618493</v>
       </c>
       <c r="E29" t="n">
-        <v>3.887548761229402</v>
+        <v>3.957130832496544</v>
       </c>
     </row>
     <row r="30">
@@ -928,16 +928,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.798866767307734</v>
+        <v>3.896481877024605</v>
       </c>
       <c r="C30" t="n">
-        <v>3.778573972566435</v>
+        <v>3.970379462261579</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.893808333228729</v>
+        <v>3.991608692726476</v>
       </c>
     </row>
     <row r="31">
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>8.723807337032358</v>
+        <v>8.702122265958566</v>
       </c>
       <c r="D36" t="n">
-        <v>9.01045797427539</v>
+        <v>9.007161747151793</v>
       </c>
       <c r="E36" t="n">
-        <v>8.139287990881716</v>
+        <v>8.129933995027223</v>
       </c>
     </row>
     <row r="37">
@@ -1047,16 +1047,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.583661407471359</v>
+        <v>8.617501726348213</v>
       </c>
       <c r="C37" t="n">
         <v>9.999999999999957</v>
       </c>
       <c r="D37" t="n">
-        <v>8.969763403641196</v>
+        <v>8.85273201110131</v>
       </c>
       <c r="E37" t="n">
-        <v>8.286556068336147</v>
+        <v>8.342539132111037</v>
       </c>
     </row>
     <row r="38">
@@ -1064,16 +1064,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.769787569783563</v>
+        <v>3.901906297252098</v>
       </c>
       <c r="C38" t="n">
-        <v>3.803506169074886</v>
+        <v>3.903261300850032</v>
       </c>
       <c r="D38" t="n">
-        <v>3.776674116556372</v>
+        <v>3.988709915450636</v>
       </c>
       <c r="E38" t="n">
-        <v>3.800125296543645</v>
+        <v>3.903906208221282</v>
       </c>
     </row>
     <row r="39">
@@ -1081,16 +1081,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.77024514279066</v>
+        <v>3.896581930345639</v>
       </c>
       <c r="C39" t="n">
-        <v>3.811760892150834</v>
+        <v>3.932703154837047</v>
       </c>
       <c r="D39" t="n">
-        <v>3.8285651691247</v>
+        <v>4.241855480627855</v>
       </c>
       <c r="E39" t="n">
-        <v>3.803647392551028</v>
+        <v>3.92931878147292</v>
       </c>
     </row>
     <row r="40">
@@ -1098,16 +1098,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.762330591258659</v>
+        <v>3.86866518365416</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04132772065153887</v>
+        <v>0.002621992314909382</v>
       </c>
       <c r="D40" t="n">
-        <v>4.027282565251377</v>
+        <v>4.585663573089414</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01119154819208621</v>
+        <v>0.08549582612135281</v>
       </c>
     </row>
     <row r="41">
@@ -1115,16 +1115,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.769408678837038</v>
+        <v>4.009517855755444</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05123771929369984</v>
+        <v>0.05030844965281873</v>
       </c>
       <c r="D41" t="n">
-        <v>4.798396157816745</v>
+        <v>5.192979713932147</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2113521302517374</v>
+        <v>0.08213618743633294</v>
       </c>
     </row>
     <row r="42">
@@ -1132,16 +1132,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.259521711131674</v>
+        <v>4.694188557554396</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1557155525033194</v>
+        <v>0.1162435558377976</v>
       </c>
       <c r="D42" t="n">
-        <v>5.621513290448629</v>
+        <v>6.068042923164378</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06181729470778526</v>
+        <v>0.2328300695316327</v>
       </c>
     </row>
     <row r="43">
@@ -1149,16 +1149,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.951080559117552</v>
+        <v>5.082150027351799</v>
       </c>
       <c r="C43" t="n">
-        <v>0.004304524915223519</v>
+        <v>0.0910561252074894</v>
       </c>
       <c r="D43" t="n">
-        <v>6.837756403282481</v>
+        <v>7.18226529113802</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03319091768570665</v>
+        <v>0.04070555849378045</v>
       </c>
     </row>
     <row r="44">
@@ -1166,16 +1166,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.941777648923959</v>
+        <v>6.20040343098845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.164800384990328</v>
+        <v>0.06538175031039857</v>
       </c>
       <c r="D44" t="n">
-        <v>8.397854340612026</v>
+        <v>8.507025714547558</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2387221137536426</v>
+        <v>0.007599906693211175</v>
       </c>
     </row>
     <row r="45">
@@ -1183,16 +1183,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.985752039087605</v>
+        <v>7.354885719459265</v>
       </c>
       <c r="C45" t="n">
-        <v>8.489720342039051</v>
+        <v>8.550443195417476</v>
       </c>
       <c r="D45" t="n">
         <v>9.999999999999957</v>
       </c>
       <c r="E45" t="n">
-        <v>8.54457295218247</v>
+        <v>8.576716885332097</v>
       </c>
     </row>
     <row r="46">
@@ -1217,16 +1217,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.797640447128591</v>
+        <v>3.90493904961442</v>
       </c>
       <c r="C47" t="n">
-        <v>3.899981001172078</v>
+        <v>3.965754595306481</v>
       </c>
       <c r="D47" t="n">
-        <v>3.815283259572151</v>
+        <v>3.932972533270914</v>
       </c>
       <c r="E47" t="n">
-        <v>3.771012075967935</v>
+        <v>3.895997489418586</v>
       </c>
     </row>
     <row r="48">
@@ -1234,16 +1234,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.809805712151763</v>
+        <v>3.9100904224979</v>
       </c>
       <c r="C48" t="n">
-        <v>3.920110606808309</v>
+        <v>3.991520801919761</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>3.771454915679522</v>
+        <v>3.976874237044671</v>
       </c>
     </row>
     <row r="49">
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>8.073523897835642</v>
+        <v>8.192122546495899</v>
       </c>
       <c r="D54" t="n">
-        <v>8.906934736688589</v>
+        <v>8.816605709849014</v>
       </c>
       <c r="E54" t="n">
-        <v>8.63440210904708</v>
+        <v>8.625805539774735</v>
       </c>
     </row>
     <row r="55">
@@ -1353,13 +1353,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.441954695222487</v>
+        <v>8.56902272372273</v>
       </c>
       <c r="C55" t="n">
-        <v>8.143552569567843</v>
+        <v>8.300483915919591</v>
       </c>
       <c r="D55" t="n">
-        <v>8.721501466059665</v>
+        <v>9.054827359842047</v>
       </c>
       <c r="E55" t="n">
         <v>9.999999999999957</v>
@@ -1370,16 +1370,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.898029178720286</v>
+        <v>3.961757727963109</v>
       </c>
       <c r="C56" t="n">
-        <v>4.032796520651925</v>
+        <v>4.072288688265817</v>
       </c>
       <c r="D56" t="n">
-        <v>3.93053006099558</v>
+        <v>3.995227474352733</v>
       </c>
       <c r="E56" t="n">
-        <v>3.809368519969993</v>
+        <v>3.908693141095752</v>
       </c>
     </row>
     <row r="57">
@@ -1387,16 +1387,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.906036909937282</v>
+        <v>3.966401668911866</v>
       </c>
       <c r="C57" t="n">
-        <v>4.084837452211001</v>
+        <v>4.133131490190053</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>3.800075650828981</v>
+        <v>3.937815548735471</v>
       </c>
     </row>
     <row r="58">
@@ -1492,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>7.601654675451102</v>
+        <v>7.679631785268425</v>
       </c>
       <c r="D63" t="n">
-        <v>8.142169656780142</v>
+        <v>8.265984365525375</v>
       </c>
       <c r="E63" t="n">
-        <v>8.465376829490534</v>
+        <v>8.549951788369707</v>
       </c>
     </row>
     <row r="64">
@@ -1506,16 +1506,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.032255916611657</v>
+        <v>8.165647111113445</v>
       </c>
       <c r="C64" t="n">
-        <v>7.651797725104922</v>
+        <v>7.737369927793582</v>
       </c>
       <c r="D64" t="n">
-        <v>8.11480206497543</v>
+        <v>8.210360336124028</v>
       </c>
       <c r="E64" t="n">
-        <v>8.759809373690535</v>
+        <v>9.007539003114157</v>
       </c>
     </row>
     <row r="65">
@@ -1523,16 +1523,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.037387686206514</v>
+        <v>4.080846554774049</v>
       </c>
       <c r="C65" t="n">
-        <v>4.149859705595967</v>
+        <v>4.186977573029704</v>
       </c>
       <c r="D65" t="n">
-        <v>4.125658129970649</v>
+        <v>4.172351119621083</v>
       </c>
       <c r="E65" t="n">
-        <v>3.899192409013668</v>
+        <v>3.964024419246574</v>
       </c>
     </row>
     <row r="66">
@@ -1540,16 +1540,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.043251758594789</v>
+        <v>4.068940996059935</v>
       </c>
       <c r="C66" t="n">
-        <v>4.337722103268987</v>
+        <v>4.43977850795723</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>3.90505410260387</v>
+        <v>3.992571526726569</v>
       </c>
     </row>
     <row r="67">
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>7.21894574082628</v>
+        <v>7.252561668046263</v>
       </c>
       <c r="D72" t="n">
-        <v>7.620845941866878</v>
+        <v>7.787730142571878</v>
       </c>
       <c r="E72" t="n">
-        <v>8.087414515169556</v>
+        <v>8.133847356871033</v>
       </c>
     </row>
     <row r="73">
@@ -1659,16 +1659,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.616939982803436</v>
+        <v>7.672265639113953</v>
       </c>
       <c r="C73" t="n">
-        <v>7.351078783059276</v>
+        <v>7.437496018230733</v>
       </c>
       <c r="D73" t="n">
-        <v>7.677938157508776</v>
+        <v>7.77407315212463</v>
       </c>
       <c r="E73" t="n">
-        <v>8.09286528776564</v>
+        <v>8.237212516395019</v>
       </c>
     </row>
     <row r="74">
@@ -1676,16 +1676,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.146384050031241</v>
+        <v>4.195547013275673</v>
       </c>
       <c r="C74" t="n">
-        <v>4.148073990356111</v>
+        <v>4.195612436531769</v>
       </c>
       <c r="D74" t="n">
-        <v>4.345185538605132</v>
+        <v>4.356251322174307</v>
       </c>
       <c r="E74" t="n">
-        <v>4.041149836120958</v>
+        <v>4.065091109772604</v>
       </c>
     </row>
     <row r="75">
@@ -1693,16 +1693,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.161463178062651</v>
+        <v>4.172136348539548</v>
       </c>
       <c r="C75" t="n">
-        <v>4.273007735235002</v>
+        <v>4.37617399427139</v>
       </c>
       <c r="D75" t="n">
-        <v>4.828998151927193</v>
+        <v>4.873702594739338</v>
       </c>
       <c r="E75" t="n">
-        <v>4.078324018483224</v>
+        <v>4.184729024406852</v>
       </c>
     </row>
     <row r="76">
@@ -1710,13 +1710,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.343050761874437</v>
+        <v>4.380442034926213</v>
       </c>
       <c r="C76" t="n">
-        <v>4.815560155527257</v>
+        <v>4.936935144258356</v>
       </c>
       <c r="D76" t="n">
-        <v>5.216127922047741</v>
+        <v>5.431672489511764</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1727,13 +1727,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.883805181800819</v>
+        <v>4.949604716437732</v>
       </c>
       <c r="C77" t="n">
-        <v>5.295539577019261</v>
+        <v>5.344980429706028</v>
       </c>
       <c r="D77" t="n">
-        <v>5.746551713947525</v>
+        <v>5.824596076123082</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.319150592992014</v>
+        <v>5.366020140450371</v>
       </c>
       <c r="C78" t="n">
-        <v>5.800716288138443</v>
+        <v>5.868495165968498</v>
       </c>
       <c r="D78" t="n">
-        <v>6.245295383100122</v>
+        <v>6.287723947900514</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1761,13 +1761,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.759544244940168</v>
+        <v>5.827483288659058</v>
       </c>
       <c r="C79" t="n">
-        <v>6.26020406510996</v>
+        <v>6.223724259750196</v>
       </c>
       <c r="D79" t="n">
-        <v>6.715171755052798</v>
+        <v>6.786652889288957</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.304728651253838</v>
+        <v>6.262358999922499</v>
       </c>
       <c r="C80" t="n">
-        <v>6.760081872531054</v>
+        <v>6.744106919414057</v>
       </c>
       <c r="D80" t="n">
-        <v>7.235152272080332</v>
+        <v>7.291876609094506</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.6532551541492</v>
+        <v>6.741395557076037</v>
       </c>
       <c r="C81" t="n">
-        <v>7.22323720312033</v>
+        <v>7.320465597023721</v>
       </c>
       <c r="D81" t="n">
-        <v>7.346244259585862</v>
+        <v>7.421040295465024</v>
       </c>
       <c r="E81" t="n">
-        <v>7.616043012594031</v>
+        <v>7.734328330552797</v>
       </c>
     </row>
     <row r="82">
@@ -1812,16 +1812,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.205501794965613</v>
+        <v>7.310782984512405</v>
       </c>
       <c r="C82" t="n">
-        <v>7.334857833025022</v>
+        <v>7.468334275284557</v>
       </c>
       <c r="D82" t="n">
-        <v>7.333868650282478</v>
+        <v>7.464181092282601</v>
       </c>
       <c r="E82" t="n">
-        <v>7.673676335587958</v>
+        <v>7.776592222050741</v>
       </c>
     </row>
   </sheetData>
